--- a/playboy-stats.xlsx
+++ b/playboy-stats.xlsx
@@ -23562,8 +23562,8 @@
   <dimension ref="A1:W751"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D749" sqref="D749"/>
+      <pane ySplit="1" topLeftCell="A666" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F688" sqref="F688"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
